--- a/asInventory.xlsx
+++ b/asInventory.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\romeo\Collect\spe\Tools\asInventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\asInventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Level</t>
   </si>
@@ -59,51 +59,12 @@
     <t>Date 5</t>
   </si>
   <si>
-    <t>e7655b3875446cd8b09e277fa5440782</t>
-  </si>
-  <si>
-    <t>Archival Object</t>
-  </si>
-  <si>
-    <t>Stand Up for Texas</t>
-  </si>
-  <si>
-    <t>7704eba77b56b72ad50fd04ad99eda24</t>
-  </si>
-  <si>
-    <t>db214bb7c93134005c1cf7d6505113ec</t>
-  </si>
-  <si>
-    <t>3981c5710d72f65c99fccd7fa8ffc5eb</t>
-  </si>
-  <si>
-    <t>Programs</t>
-  </si>
-  <si>
-    <t>Programs, Others</t>
-  </si>
-  <si>
-    <t>Donated by Person</t>
-  </si>
-  <si>
     <t>Scope</t>
   </si>
   <si>
-    <t>ca.</t>
-  </si>
-  <si>
     <t>Date 1 Normal</t>
   </si>
   <si>
-    <t>1974-11</t>
-  </si>
-  <si>
-    <t>1974 Fall</t>
-  </si>
-  <si>
-    <t>1994/1986</t>
-  </si>
-  <si>
     <t>Date 1 Display</t>
   </si>
   <si>
@@ -119,46 +80,19 @@
     <t>Date 5 Normal</t>
   </si>
   <si>
-    <t>Box</t>
-  </si>
-  <si>
     <t>Folder</t>
   </si>
   <si>
     <t>Location</t>
   </si>
   <si>
-    <t>1 (2-Series 2:Programs and yearbooks)</t>
-  </si>
-  <si>
     <t>Box ID</t>
   </si>
   <si>
     <t>Location ID</t>
   </si>
   <si>
-    <t>G-1-6-2</t>
-  </si>
-  <si>
-    <t>373;374;375;376</t>
-  </si>
-  <si>
-    <t>G-8-5-1;G-8-5-2;G-8-5-3</t>
-  </si>
-  <si>
-    <t>373;374;375</t>
-  </si>
-  <si>
-    <t>program.pdf</t>
-  </si>
-  <si>
     <t>DAO Filename</t>
-  </si>
-  <si>
-    <t>programs.pdf</t>
-  </si>
-  <si>
-    <t>1232048-program.pdf</t>
   </si>
   <si>
     <t>F#</t>
@@ -252,7 +186,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -271,7 +227,12 @@
       </font>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -284,7 +245,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A6:W35" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A6:W35" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A6:W35"/>
   <tableColumns count="23">
     <tableColumn id="1" name="ID"/>
@@ -578,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,9 +579,6 @@
       <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E2" s="3"/>
@@ -629,9 +587,6 @@
       <c r="H2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E3" s="3"/>
@@ -640,67 +595,64 @@
       <c r="H3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="6" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="T6" s="2" t="s">
         <v>4</v>
@@ -709,401 +661,17 @@
         <v>5</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7">
-        <v>30406</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U7" t="s">
-        <v>19</v>
-      </c>
-      <c r="W7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D8">
-        <v>30406</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8">
-        <v>1930</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9">
-        <v>30406</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9">
-        <v>1953</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10">
-        <v>30406</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10">
-        <v>1955</v>
-      </c>
-      <c r="W10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11">
-        <v>30406</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-      <c r="I11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" t="s">
-        <v>25</v>
-      </c>
-      <c r="W11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12">
-        <v>30406</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12">
-        <v>6</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13">
-        <v>30406</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13">
-        <v>7</v>
-      </c>
-      <c r="I13" t="s">
-        <v>18</v>
-      </c>
+      <c r="K7" s="1"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15">
-        <v>1930</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16">
-        <v>3</v>
-      </c>
-      <c r="I16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16">
-        <v>1953</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17">
-        <v>4</v>
-      </c>
-      <c r="I17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17">
-        <v>1955</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18">
-        <v>5</v>
-      </c>
-      <c r="I18" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19">
-        <v>6</v>
-      </c>
-      <c r="I19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="E20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20">
-        <v>7</v>
-      </c>
-      <c r="I20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
-        <v>17</v>
-      </c>
+      <c r="K14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/asInventory.xlsx
+++ b/asInventory.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\asInventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gw234478\win\asInventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -511,7 +511,7 @@
   <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" activeCellId="1" sqref="I17 F4"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
